--- a/a/GetElectronicInvoiceData_1.0.xlsx
+++ b/a/GetElectronicInvoiceData_1.0.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{550E31BE-BAA7-48C1-B81B-E365942DBF0F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="200" windowWidth="14810" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="183">
   <si>
     <t>服务名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -839,47 +838,64 @@
     <t>订单ID</t>
   </si>
   <si>
-    <t>6.1.1</t>
-  </si>
-  <si>
-    <t>6.1.2</t>
-  </si>
-  <si>
-    <t>6.1.3</t>
-  </si>
-  <si>
-    <t>6.1.4</t>
-  </si>
-  <si>
-    <t>6.1.5</t>
-  </si>
-  <si>
-    <t>6.1.6</t>
-  </si>
-  <si>
-    <t>6.1.7</t>
-  </si>
-  <si>
-    <t>6.1.8</t>
-  </si>
-  <si>
-    <t>6.1.9</t>
-  </si>
-  <si>
-    <t>6.1.10</t>
-  </si>
-  <si>
-    <t>6.1</t>
-  </si>
-  <si>
     <t>1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6.2</t>
+  </si>
+  <si>
+    <t>1.6.3</t>
+  </si>
+  <si>
+    <t>1.6.4</t>
+  </si>
+  <si>
+    <t>1.6.5</t>
+  </si>
+  <si>
+    <t>1.6.6</t>
+  </si>
+  <si>
+    <t>1.6.7</t>
+  </si>
+  <si>
+    <t>1.6.8</t>
+  </si>
+  <si>
+    <t>1.6.9</t>
+  </si>
+  <si>
+    <t>1.6.10</t>
+  </si>
+  <si>
+    <t>1.6.11</t>
+  </si>
+  <si>
+    <t>resp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
@@ -991,7 +1007,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1014,6 +1030,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1027,7 +1080,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1058,31 +1111,108 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 11" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="常规 11" xfId="3"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1102,7 +1232,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1137,7 +1267,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1170,26 +1300,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1222,23 +1335,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1414,170 +1510,170 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" customWidth="1"/>
-    <col min="5" max="5" width="24.7265625" customWidth="1"/>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="24.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="13"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="C2" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -1592,8 +1688,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="10" t="s">
@@ -1607,8 +1703,8 @@
       </c>
       <c r="E15" s="10"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="16"/>
       <c r="B16" s="10" t="s">
         <v>118</v>
       </c>
@@ -1622,8 +1718,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="16"/>
       <c r="B17" s="10" t="s">
         <v>120</v>
       </c>
@@ -1637,8 +1733,8 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="16"/>
       <c r="B18" s="10" t="s">
         <v>88</v>
       </c>
@@ -1652,8 +1748,8 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="16"/>
       <c r="B19" s="10" t="s">
         <v>90</v>
       </c>
@@ -1667,8 +1763,8 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="16"/>
       <c r="B20" s="10" t="s">
         <v>92</v>
       </c>
@@ -1682,8 +1778,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="26" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="16"/>
       <c r="B21" s="11" t="s">
         <v>103</v>
       </c>
@@ -1695,8 +1791,8 @@
       </c>
       <c r="E21" s="11"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="16"/>
       <c r="B22" s="11" t="s">
         <v>104</v>
       </c>
@@ -1710,8 +1806,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="16"/>
       <c r="B23" s="11" t="s">
         <v>105</v>
       </c>
@@ -1725,8 +1821,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="16"/>
       <c r="B24" s="11" t="s">
         <v>106</v>
       </c>
@@ -1740,8 +1836,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="16"/>
       <c r="B25" s="11" t="s">
         <v>107</v>
       </c>
@@ -1755,8 +1851,8 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="16"/>
       <c r="B26" s="11" t="s">
         <v>108</v>
       </c>
@@ -1770,8 +1866,8 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="16"/>
       <c r="B27" s="11" t="s">
         <v>109</v>
       </c>
@@ -1785,8 +1881,8 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="16"/>
       <c r="B28" s="11" t="s">
         <v>110</v>
       </c>
@@ -1800,8 +1896,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="16"/>
       <c r="B29" s="11" t="s">
         <v>111</v>
       </c>
@@ -1815,8 +1911,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="16"/>
       <c r="B30" s="11" t="s">
         <v>137</v>
       </c>
@@ -1830,8 +1926,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="16"/>
       <c r="B31" s="11" t="s">
         <v>135</v>
       </c>
@@ -1845,263 +1941,268 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="10" t="s">
+      <c r="B32" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="19"/>
+      <c r="B33" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C33" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="10" t="s">
+      <c r="D33" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="10"/>
+    </row>
+    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="19"/>
+      <c r="B34" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="10" t="s">
+      <c r="D34" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" s="10" t="s">
+    <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="19"/>
+      <c r="B35" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="C35" s="10" t="s">
+      <c r="D35" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="10"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="19"/>
+      <c r="B36" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C36" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="D36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" s="10" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="19"/>
+      <c r="B37" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="D37" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="10"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="19"/>
+      <c r="B38" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="10" t="s">
+      <c r="D38" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="26" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="11" t="s">
+    <row r="39" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="19"/>
+      <c r="B39" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="19"/>
+      <c r="B40" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="19"/>
+      <c r="B41" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="19"/>
+      <c r="B42" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" s="11"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="19"/>
+      <c r="B43" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A44" s="19"/>
+      <c r="B44" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A45" s="19"/>
+      <c r="B45" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="11"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
-      <c r="B39" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="12"/>
-      <c r="B40" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
-      <c r="B42" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
-      <c r="B43" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
-      <c r="B44" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="C44" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D44" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E44" s="11" t="s">
+      <c r="D45" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="C45" s="11" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A46" s="19"/>
+      <c r="B46" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C46" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D45" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E45" s="11" t="s">
+      <c r="D46" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
-      <c r="B46" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C46" s="11" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A47" s="19"/>
+      <c r="B47" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C47" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D46" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E46" s="11" t="s">
+      <c r="D47" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
-      <c r="B47" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C47" s="11" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A48" s="19"/>
+      <c r="B48" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="C48" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D47" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E47" s="11" t="s">
+      <c r="D48" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="11" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="12"/>
-      <c r="B48" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C48" s="11" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="20"/>
+      <c r="B49" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C49" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E48" s="11" t="s">
+      <c r="D49" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" s="11" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="A32:A48"/>
     <mergeCell ref="A15:A31"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C7:E7"/>
@@ -2111,45 +2212,53 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A32:A49"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" customWidth="1"/>
-    <col min="3" max="3" width="14.08984375" customWidth="1"/>
-    <col min="4" max="4" width="8.08984375" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" customWidth="1"/>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="21.75" customWidth="1"/>
+    <col min="3" max="3" width="14.125" customWidth="1"/>
+    <col min="4" max="4" width="8.125" customWidth="1"/>
+    <col min="5" max="5" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="13"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
@@ -2159,130 +2268,130 @@
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
       <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>5</v>
@@ -2297,8 +2406,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="6">
@@ -2314,8 +2423,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="16"/>
       <c r="B16" s="6">
         <v>2</v>
       </c>
@@ -2329,8 +2438,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="16"/>
       <c r="B17" s="6">
         <v>3</v>
       </c>
@@ -2344,8 +2453,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="16"/>
       <c r="B18" s="6">
         <v>4</v>
       </c>
@@ -2359,8 +2468,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="16"/>
       <c r="B19" s="6">
         <v>5</v>
       </c>
@@ -2374,8 +2483,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="16"/>
       <c r="B20" s="6">
         <v>6</v>
       </c>
@@ -2389,8 +2498,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="16"/>
       <c r="B21" s="6">
         <v>7</v>
       </c>
@@ -2404,8 +2513,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="13" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -2421,8 +2530,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
       <c r="B23" s="9" t="s">
         <v>47</v>
       </c>
@@ -2436,8 +2545,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
+    <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="13"/>
       <c r="B24" s="9" t="s">
         <v>50</v>
       </c>
@@ -2451,8 +2560,8 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="26" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+    <row r="25" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+      <c r="A25" s="13"/>
       <c r="B25" s="9" t="s">
         <v>53</v>
       </c>
@@ -2466,8 +2575,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="13"/>
       <c r="B26" s="9" t="s">
         <v>56</v>
       </c>
@@ -2481,8 +2590,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="13"/>
       <c r="B27" s="9" t="s">
         <v>60</v>
       </c>
@@ -2496,8 +2605,8 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="13"/>
       <c r="B28" s="9" t="s">
         <v>63</v>
       </c>
@@ -2511,8 +2620,8 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="13"/>
       <c r="B29" s="9" t="s">
         <v>65</v>
       </c>
@@ -2526,8 +2635,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+    <row r="30" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A30" s="13"/>
       <c r="B30" s="9" t="s">
         <v>67</v>
       </c>
@@ -2541,8 +2650,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="13"/>
       <c r="B31" s="9" t="s">
         <v>70</v>
       </c>
@@ -2556,8 +2665,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="13"/>
       <c r="B32" s="9" t="s">
         <v>73</v>
       </c>
@@ -2571,8 +2680,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="13"/>
       <c r="B33" s="9" t="s">
         <v>76</v>
       </c>
@@ -2586,8 +2695,8 @@
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="13"/>
       <c r="B34" s="9" t="s">
         <v>79</v>
       </c>
@@ -2601,8 +2710,8 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="13"/>
       <c r="B35" s="9" t="s">
         <v>82</v>
       </c>
@@ -2616,8 +2725,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="13"/>
       <c r="B36" s="9" t="s">
         <v>85</v>
       </c>
@@ -2633,6 +2742,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A22:A36"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A15:A21"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="C2:E2"/>
@@ -2643,13 +2759,6 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A22:A36"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="A15:A21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2657,12 +2766,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2670,12 +2779,12 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2683,12 +2792,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/a/GetElectronicInvoiceData_1.0.xlsx
+++ b/a/GetElectronicInvoiceData_1.0.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="183">
   <si>
     <t>服务名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -846,49 +846,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.6.2</t>
-  </si>
-  <si>
-    <t>1.6.3</t>
-  </si>
-  <si>
-    <t>1.6.4</t>
-  </si>
-  <si>
-    <t>1.6.5</t>
-  </si>
-  <si>
-    <t>1.6.6</t>
-  </si>
-  <si>
-    <t>1.6.7</t>
-  </si>
-  <si>
-    <t>1.6.8</t>
-  </si>
-  <si>
-    <t>1.6.9</t>
-  </si>
-  <si>
-    <t>1.6.10</t>
-  </si>
-  <si>
-    <t>1.6.11</t>
-  </si>
-  <si>
-    <t>resp</t>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>6.8</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>6.10</t>
+  </si>
+  <si>
+    <t>6.11</t>
+  </si>
+  <si>
+    <t>输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1007,7 +1007,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1028,19 +1028,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1080,7 +1067,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1111,6 +1098,12 @@
     <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1126,15 +1119,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1511,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1527,151 +1511,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
@@ -1689,8 +1673,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
-        <v>4</v>
+      <c r="A15" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>44</v>
@@ -1704,7 +1688,7 @@
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="16"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="10" t="s">
         <v>118</v>
       </c>
@@ -1719,7 +1703,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="10" t="s">
         <v>120</v>
       </c>
@@ -1734,7 +1718,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="10" t="s">
         <v>88</v>
       </c>
@@ -1749,7 +1733,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="10" t="s">
         <v>90</v>
       </c>
@@ -1764,7 +1748,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="10" t="s">
         <v>92</v>
       </c>
@@ -1779,7 +1763,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="11" t="s">
         <v>103</v>
       </c>
@@ -1792,7 +1776,7 @@
       <c r="E21" s="11"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="16"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="11" t="s">
         <v>104</v>
       </c>
@@ -1807,7 +1791,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="16"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="11" t="s">
         <v>105</v>
       </c>
@@ -1822,7 +1806,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="16"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="11" t="s">
         <v>106</v>
       </c>
@@ -1837,7 +1821,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="16"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="11" t="s">
         <v>107</v>
       </c>
@@ -1852,7 +1836,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="16"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="11" t="s">
         <v>108</v>
       </c>
@@ -1867,7 +1851,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="16"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="11" t="s">
         <v>109</v>
       </c>
@@ -1882,7 +1866,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="16"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="11" t="s">
         <v>110</v>
       </c>
@@ -1897,7 +1881,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="16"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="11" t="s">
         <v>111</v>
       </c>
@@ -1912,7 +1896,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="16"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="11" t="s">
         <v>137</v>
       </c>
@@ -1927,7 +1911,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="16"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="11" t="s">
         <v>135</v>
       </c>
@@ -1942,267 +1926,263 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" s="10"/>
+    </row>
+    <row r="33" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="12"/>
+      <c r="B33" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="E32" s="11"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="19"/>
-      <c r="B33" s="10" t="s">
+      <c r="C33" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="12"/>
+      <c r="B34" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" s="10"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A35" s="12"/>
+      <c r="B35" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="12"/>
+      <c r="B36" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="10"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="12"/>
+      <c r="B37" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A38" s="12"/>
+      <c r="B38" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="19"/>
-      <c r="B34" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="19"/>
-      <c r="B35" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="19"/>
-      <c r="B36" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="19"/>
-      <c r="B37" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="19"/>
-      <c r="B38" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A39" s="19"/>
+      <c r="C38" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="12"/>
       <c r="B39" s="11" t="s">
         <v>171</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D39" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="11"/>
+      <c r="E39" s="11" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="19"/>
+      <c r="A40" s="12"/>
       <c r="B40" s="11" t="s">
         <v>172</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D40" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="19"/>
+      <c r="A41" s="12"/>
       <c r="B41" s="11" t="s">
         <v>173</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>151</v>
-      </c>
+      <c r="E41" s="11"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="19"/>
+      <c r="A42" s="12"/>
       <c r="B42" s="11" t="s">
         <v>174</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="11"/>
+      <c r="E42" s="11" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="19"/>
+      <c r="A43" s="12"/>
       <c r="B43" s="11" t="s">
         <v>175</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="19"/>
+      <c r="A44" s="12"/>
       <c r="B44" s="11" t="s">
         <v>176</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="19"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="11" t="s">
         <v>177</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="19"/>
+      <c r="A46" s="12"/>
       <c r="B46" s="11" t="s">
         <v>178</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E46" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A47" s="19"/>
+      <c r="A47" s="12"/>
       <c r="B47" s="11" t="s">
         <v>179</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A48" s="19"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="11" t="s">
         <v>180</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>44</v>
       </c>
       <c r="E48" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A49" s="20"/>
-      <c r="B49" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E49" s="11" t="s">
         <v>166</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A32:A48"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C6:E6"/>
     <mergeCell ref="A15:A31"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="C7:E7"/>
@@ -2211,15 +2191,6 @@
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="A32:A49"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2245,151 +2216,151 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="19">
         <v>1</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="13"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
     </row>
     <row r="14" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1"/>
@@ -2407,7 +2378,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="6">
@@ -2424,7 +2395,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="16"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="6">
         <v>2</v>
       </c>
@@ -2439,7 +2410,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="16"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="6">
         <v>3</v>
       </c>
@@ -2454,7 +2425,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="16"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="6">
         <v>4</v>
       </c>
@@ -2469,7 +2440,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="16"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="6">
         <v>5</v>
       </c>
@@ -2484,7 +2455,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="16"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="6">
         <v>6</v>
       </c>
@@ -2499,7 +2470,7 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="16"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="6">
         <v>7</v>
       </c>
@@ -2514,7 +2485,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="9" t="s">
@@ -2531,7 +2502,7 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="13"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="9" t="s">
         <v>47</v>
       </c>
@@ -2546,7 +2517,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="13"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="9" t="s">
         <v>50</v>
       </c>
@@ -2561,7 +2532,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="24" x14ac:dyDescent="0.15">
-      <c r="A25" s="13"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="9" t="s">
         <v>53</v>
       </c>
@@ -2576,7 +2547,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="13"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="9" t="s">
         <v>56</v>
       </c>
@@ -2591,7 +2562,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="13"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="9" t="s">
         <v>60</v>
       </c>
@@ -2606,7 +2577,7 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="13"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="9" t="s">
         <v>63</v>
       </c>
@@ -2621,7 +2592,7 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="13"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="9" t="s">
         <v>65</v>
       </c>
@@ -2636,7 +2607,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="13"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="9" t="s">
         <v>67</v>
       </c>
@@ -2651,7 +2622,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="13"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="9" t="s">
         <v>70</v>
       </c>
@@ -2666,7 +2637,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="13"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="9" t="s">
         <v>73</v>
       </c>
@@ -2681,7 +2652,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="13"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="9" t="s">
         <v>76</v>
       </c>
@@ -2696,7 +2667,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A34" s="13"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="9" t="s">
         <v>79</v>
       </c>
@@ -2711,7 +2682,7 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="13"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="9" t="s">
         <v>82</v>
       </c>
@@ -2726,7 +2697,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="13"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="9" t="s">
         <v>85</v>
       </c>
